--- a/output_excel/output_タンブラー_3_8.xlsx
+++ b/output_excel/output_タンブラー_3_8.xlsx
@@ -511,83 +511,6 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>スマートフォンの次に来るものスマートフォンはインターネットを手軽に利用するためのデバイスとして認知されコスト削減も進んだことから開発途上国を含め世界中に広まっているディスプレイとマルチタッチセンサーによる all in one デバイスとしては完成の域に達したといえよう移動体通信の歴史を見ると1970年代後半に自動車電話が登場し80年代後半には人が持ち運べるようになった90年代後半の携帯電話普及で移動に制約がなくなり2000年代後半のスマートフォンでインターネットの融合が加速した歴史的にはおよそ10年周期で行われており2010年代後半となった現在次のイノベーションが現れても良いタイミングである</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2.55254199124798</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3243243243243243</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.03804347826086957</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1783783783783783</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>スマートフォンの次に来るもの スマートフォンは、インターネットを手軽に利用するためのデバイスとして認知され、コスト削減も進んだことから開発途上国を含め世界中に広まっている。ディスプレーとマルチタッチセンサーによるオールインワンデバイスとしては完成の域に達したと言えよう。
-　移動体通信の歴史を見ると、1970年代後半に自動車電話が登場し、80年代後半には人が持ち運べるようになった。90年代後半の携帯電話普及で移動に制約がなくなり、2000年代後半のスマートフォンでインターネットとの融合が加速した。歴史的にはおよそ10年周期で技術革新が行われており、2010年代後半となった現在、次のイノベーションが現れても良いタイミングである。</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>スマートフォンの次に来るもの
-スマートフォンはインターネットお手軽
-コスト削減も進んだことから
-世界中に広まって
-スプレッドマルチタッチセンサーによる all in one デバイスとしては完成の域に達したといえよう
-導体の歴史を見ると1970年代後半に自動車電話が登場し80年代後半には人が持ち運べるように
-90年代後半の携帯電話普及で移動に制約がなく
-2000年代後半のスマートフォンでインターネットの融合
-的には10年周期で技術革新が行われており2010年代後半となった現在次のイノベーションが現れても良い
-チモシー
-もしもし
-私が
-ディスプレイとマルチタッチペン
-90年代後半の携帯電話普及で移動に制約がなくなり2000年代後半
-インターネット
-歴史的にはおよそ10年周期</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>67.07929660416701</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7985347985347986</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.6863468634686347</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.73992673992674</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>アップデートが必要な経済学 現代社会では、企業経営においても国の政策決定においても、統計が重要な役割を果たす。中でも最も影響力のある統計はGDPであろう。GDPと景気、景気と生活の豊かさや質に強い相関があるという前提が成立していたからだ。しかし、モノと所有をベースとする社会では優秀な統計指標であったGDPが、サービス化と共有をベースとするデジタル経済時代でも有効に機能するだろうか。検証が必要だ。
-　平成元年の携帯電話の普及率（人口当たりの契約数）は0.2%。当時の生活は、黒電話、新聞、書籍、辞書、事典、地図、各種ガイドブック、オーディオ、磁気ディスク、カメラ、フィルム等々、多数のモノにあふれており、そうしたモノの所有と消費が生活の豊かさを表すバロメーターだった。しかし、今日、それらのほとんどは、たった一つのモノ（スマホ）と多様なデジタル情報に置き換わっている。価格が劇的に安価になったことで、携帯電話の普及率は、新興国でも100%を超え、今は世界中の多くの人が30年前の先進国の生活レベルを、享受できるようになった。さらに、資源の消費も格段に少なくて済むようになり、地球環境の面からも好ましい。</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>アップデートが必要な経済学
 現代社会では企業経営においても国の政策決定においても統計が重要な役割を果たす
 中でも最も影響力のある統計は GDP であろう GDP とケーキケーキと生活の豊かさや質に強い相関があるという前提が成立していたからなしかしものと所有をベースとする社会では優秀な統計指標であった GDP がサービスかと強要ベースとするデジタル経済時代でも有効に機能するだろうか検証が必要だ
@@ -597,33 +520,64 @@
 ビックカメラフィルム等々多数のものに溢れておりそうしたものの所有と消費が生活を豊かさを表すバロメーターだったしかし今日それらのほとんどはたった一つのスマホと多様なデジタル情報に置き換わっている価格が劇的に安価になったことで携帯電話の普及率は新興国でも100%を超え今は世界中の多くの人が30年前の先進国の生活レベルを享受できるようになったさらに資源の消費も格段に少なくて済むようになり地球環境の面からも好ましい</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E5" t="n">
         <v>87.42940374681008</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F5" t="n">
         <v>0.948936170212766</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G5" t="n">
         <v>0.8931623931623931</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H5" t="n">
         <v>0.9446808510638298</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>スマートフォンの次に来るもの スマートフォンは、インターネットを手軽に利用するためのデバイスとして認知され、コスト削減も進んだことから開発途上国を含め世界中に広まっている。ディスプレーとマルチタッチセンサーによるオールインワンデバイスとしては完成の域に達したと言えよう。
 　移動体通信の歴史を見ると、1970年代後半に自動車電話が登場し、80年代後半には人が持ち運べるようになった。90年代後半の携帯電話普及で移動に制約がなくなり、2000年代後半のスマートフォンでインターネットとの融合が加速した。歴史的にはおよそ10年周期で技術革新が行われており、2010年代後半となった現在、次のイノベーションが現れても良いタイミングである。</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>スマートフォンの次に来るものスマートフォンはインターネットを手軽に利用するためのデバイスとして認知されコスト削減も進んだことから開発途上国を含め世界中に広まっているディスプレイとマルチタッチセンサーによる all in one デバイスとしては完成の域に達したといえよう移動体通信の歴史を見ると1970年代後半に自動車電話が登場し80年代後半には人が持ち運べるようになった90年代後半の携帯電話普及で移動に制約がなくなり2000年代後半のスマートフォンでインターネットの融合が加速した歴史的にはおよそ10年周期で行われており2010年代後半となった現在次のイノベーションが現れても良いタイミングである</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>89.98848673296142</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.955223880597015</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9172932330827067</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.955223880597015</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>アップデートが必要な経済学 現代社会では、企業経営においても国の政策決定においても、統計が重要な役割を果たす。中でも最も影響力のある統計はGDPであろう。GDPと景気、景気と生活の豊かさや質に強い相関があるという前提が成立していたからだ。しかし、モノと所有をベースとする社会では優秀な統計指標であったGDPが、サービス化と共有をベースとするデジタル経済時代でも有効に機能するだろうか。検証が必要だ。
+　平成元年の携帯電話の普及率（人口当たりの契約数）は0.2%。当時の生活は、黒電話、新聞、書籍、辞書、事典、地図、各種ガイドブック、オーディオ、磁気ディスク、カメラ、フィルム等々、多数のモノにあふれており、そうしたモノの所有と消費が生活の豊かさを表すバロメーターだった。しかし、今日、それらのほとんどは、たった一つのモノ（スマホ）と多様なデジタル情報に置き換わっている。価格が劇的に安価になったことで、携帯電話の普及率は、新興国でも100%を超え、今は世界中の多くの人が30年前の先進国の生活レベルを、享受できるようになった。さらに、資源の消費も格段に少なくて済むようになり、地球環境の面からも好ましい。</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>アップデートが必要な経済学現代社会では企業経営においても国の政策決定において
 統計が10年
@@ -646,17 +600,63 @@
 はい</t>
         </is>
       </c>
+      <c r="E7" t="n">
+        <v>25.6879849442566</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.489795918367347</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3812316715542522</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4839650145772594</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>スマートフォンの次に来るもの スマートフォンは、インターネットを手軽に利用するためのデバイスとして認知され、コスト削減も進んだことから開発途上国を含め世界中に広まっている。ディスプレーとマルチタッチセンサーによるオールインワンデバイスとしては完成の域に達したと言えよう。
+　移動体通信の歴史を見ると、1970年代後半に自動車電話が登場し、80年代後半には人が持ち運べるようになった。90年代後半の携帯電話普及で移動に制約がなくなり、2000年代後半のスマートフォンでインターネットとの融合が加速した。歴史的にはおよそ10年周期で技術革新が行われており、2010年代後半となった現在、次のイノベーションが現れても良いタイミングである。</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>スマートフォンの次に来るもの
+スマートフォンはインターネットお手軽
+コスト削減も進んだことから
+世界中に広まって
+スプレッドマルチタッチセンサーによる all in one デバイスとしては完成の域に達したといえよう
+導体の歴史を見ると1970年代後半に自動車電話が登場し80年代後半には人が持ち運べるように
+90年代後半の携帯電話普及で移動に制約がなく
+2000年代後半のスマートフォンでインターネットの融合
+的には10年周期で技術革新が行われており2010年代後半となった現在次のイノベーションが現れても良い
+チモシー
+もしもし
+私が
+ディスプレイとマルチタッチペン
+90年代後半の携帯電話普及で移動に制約がなくなり2000年代後半
+インターネット
+歴史的にはおよそ10年周期</t>
+        </is>
+      </c>
       <c r="E8" t="n">
-        <v>0.988640032348966</v>
+        <v>67.07929660416701</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3319502074688797</v>
+        <v>0.7985347985347986</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03347280334728033</v>
+        <v>0.6863468634686347</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1659751037344398</v>
+        <v>0.73992673992674</v>
       </c>
     </row>
     <row r="9">
